--- a/doc/async_test_res.xlsx
+++ b/doc/async_test_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82035472-BFCB-439A-80B0-F1A0EC4CA002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E715CE4-1C2F-49BE-AE86-2357F99B68C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2604" windowWidth="25620" windowHeight="12204" xr2:uid="{C987650C-721D-418C-9F6E-6CA2C8470AB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C987650C-721D-418C-9F6E-6CA2C8470AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="24">
   <si>
     <t>p(90) latency</t>
   </si>
@@ -95,13 +95,32 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Overhead Decrease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +146,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,17 +468,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0313F-B6B8-461E-A9E7-27471F2F50D7}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A24" sqref="A22:J24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
@@ -1141,6 +1163,402 @@
         <v>129</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <f>(B3-B2)/B3</f>
+        <v>0.90781755196304847</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:J24" si="0">(C3-C2)/C3</f>
+        <v>-1.5933908045977012</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.88118022328548651</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1570196078431372</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.29544659718822136</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5872687578995748</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <f>(B5-B4)/B5</f>
+        <v>0.80960044668516906</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:J25" si="1">(C5-C4)/C5</f>
+        <v>-0.17111459968602824</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2599531615925084E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.017031630170321E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23960720130932897</v>
+      </c>
+      <c r="G25" s="1">
+        <f>(G5-G4)/G5</f>
+        <v>-4.0950858969236916E-3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.084848484848485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <f>(B7-B6)/B7</f>
+        <v>0.41419035074010413</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:J26" si="2">(C7-C6)/C7</f>
+        <v>-1.2012012012012022E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.42916093535075672</v>
+      </c>
+      <c r="E26" s="1">
+        <f>(E7-E6)/E7</f>
+        <v>-1.0401691331923888</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.298533218291634E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7860629845888772E-3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <f>(B10-B9)/B10</f>
+        <v>0.64712499999999995</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:J28" si="3">(C10-C9)/C10</f>
+        <v>-1.4835752482811304</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.30801616705961599</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.53922504294712725</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.13229610544049161</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2675175827038294E-2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2658227848101266E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <f>(B12-B11)/B12</f>
+        <v>8.3928343163930594E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:J29" si="4">(C12-C11)/C12</f>
+        <v>-1.5673981191222656E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
+        <v>4.608294930875478E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2788353863381308E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5426497277676945E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.6162635485076618E-3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18050541516245489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <f>(B14-B13)/B14</f>
+        <v>0.26129541864139016</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:J30" si="5">(C14-C13)/C14</f>
+        <v>0.3294117647058824</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7495395948434578E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3081285444234373E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7758749069247962E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9648894668400519E-3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1">
+        <f>(B17-B16)/B17</f>
+        <v>-1.3607082124637391</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:J32" si="6">(C17-C16)/C17</f>
+        <v>-1.236006051437216</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.58368336025848144</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.81912335860921026</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.45226856757537798</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.16617389125532447</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.23123123123123124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(B19-B18)/B19</f>
+        <v>0.59235052981669112</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:J33" si="7">(C19-C18)/C19</f>
+        <v>0.11129032258064522</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="7"/>
+        <v>9.9064391854705586E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="7"/>
+        <v>8.870967741935494E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3034605146406342E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.7205781142463867E-2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10163934426229508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1">
+        <f>(B21-B20)/B21</f>
+        <v>-1.0206035310874824</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:J34" si="8">(C21-C20)/C21</f>
+        <v>6.363636363636363E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.12377560106856622</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.9445438282647269E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.30604719764011801</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8278509544269916E-2</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="8"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/async_test_res.xlsx
+++ b/doc/async_test_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E715CE4-1C2F-49BE-AE86-2357F99B68C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89B33A2-2CA0-4A18-A273-783725E33828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C987650C-721D-418C-9F6E-6CA2C8470AB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
   <si>
     <t>p(90) latency</t>
   </si>
@@ -106,14 +106,68 @@
     <t>Put</t>
   </si>
   <si>
-    <t>Overhead Decrease</t>
+    <t>kb/span</t>
+  </si>
+  <si>
+    <t>max decrease</t>
+  </si>
+  <si>
+    <t>min decrease</t>
+  </si>
+  <si>
+    <t>avg decrease</t>
+  </si>
+  <si>
+    <t>med descrease</t>
+  </si>
+  <si>
+    <t>p(90) decrease</t>
+  </si>
+  <si>
+    <t>iteration decrease</t>
+  </si>
+  <si>
+    <t>memory decrease</t>
+  </si>
+  <si>
+    <t>DOT NET</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Delay(ms)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>med w/out delay(ms)</t>
+  </si>
+  <si>
+    <t>p(90) w/out delay(ms)</t>
+  </si>
+  <si>
+    <t>has telemetry</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>diff med</t>
+  </si>
+  <si>
+    <t>diff p(90)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,16 +182,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,16 +212,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -468,63 +557,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0313F-B6B8-461E-A9E7-27471F2F50D7}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F37" sqref="F36:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.21875" customWidth="1"/>
     <col min="13" max="13" width="10.21875" customWidth="1"/>
     <col min="14" max="14" width="12.44140625" customWidth="1"/>
     <col min="15" max="15" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -555,8 +644,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -587,8 +676,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -619,8 +708,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -651,8 +740,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -683,8 +772,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -715,40 +804,40 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9">
@@ -779,8 +868,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B10">
@@ -811,8 +900,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11">
@@ -843,8 +932,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12">
@@ -875,8 +964,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13">
@@ -907,8 +996,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -939,40 +1028,40 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16">
@@ -1003,8 +1092,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B17">
@@ -1035,8 +1124,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B18">
@@ -1067,8 +1156,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B19">
@@ -1099,8 +1188,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -1131,8 +1220,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B21">
@@ -1163,18 +1252,41 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1">
@@ -1182,7 +1294,7 @@
         <v>0.90781755196304847</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:J24" si="0">(C3-C2)/C3</f>
+        <f t="shared" ref="C24:G24" si="0">(C3-C2)/C3</f>
         <v>-1.5933908045977012</v>
       </c>
       <c r="D24" s="1">
@@ -1190,7 +1302,7 @@
         <v>-0.88118022328548651</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f>(E3-E2)/E3</f>
         <v>-1.1570196078431372</v>
       </c>
       <c r="F24" s="1">
@@ -1201,18 +1313,17 @@
         <f t="shared" si="0"/>
         <v>-1.5872687578995748</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H24" s="2">
+        <f>I2/H2*1000</f>
+        <v>8.0359381655705359E-2</v>
+      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="1">
@@ -1239,19 +1350,18 @@
         <f>(G5-G4)/G5</f>
         <v>-4.0950858969236916E-3</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H25" s="2">
+        <f>I4/H4*1000</f>
+        <v>4.1972680514301308E-2</v>
+      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1">
         <f t="shared" si="1"/>
         <v>-2.084848484848485</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1">
@@ -1278,19 +1388,18 @@
         <f t="shared" si="2"/>
         <v>4.7860629845888772E-3</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H26" s="2">
+        <f>I6/H6*1000</f>
+        <v>1.472055888223553</v>
+      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
         <v>-0.34399999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1"/>
@@ -1299,16 +1408,12 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1">
@@ -1335,19 +1440,18 @@
         <f t="shared" si="3"/>
         <v>7.2675175827038294E-2</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H28" s="2">
+        <f>I9/H9*1000</f>
+        <v>2.3046607265250167</v>
+      </c>
+      <c r="I28" s="1"/>
       <c r="J28" s="1">
         <f t="shared" si="3"/>
         <v>-1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="1">
@@ -1374,19 +1478,18 @@
         <f t="shared" si="4"/>
         <v>-2.6162635485076618E-3</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H29" s="3">
+        <f>I11/H11*1000</f>
+        <v>2.2467986030267757</v>
+      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1">
         <f t="shared" si="4"/>
         <v>0.18050541516245489</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1">
@@ -1413,19 +1516,18 @@
         <f t="shared" si="5"/>
         <v>2.9648894668400519E-3</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H30" s="3">
+        <f>I13/H13*1000</f>
+        <v>1.8054338299737074</v>
+      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1">
         <f t="shared" si="5"/>
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1"/>
@@ -1434,16 +1536,12 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1">
@@ -1470,19 +1568,18 @@
         <f t="shared" si="6"/>
         <v>0.16617389125532447</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H32" s="3">
+        <f>I16/H16*1000</f>
+        <v>1.9322459222082811</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1">
         <f t="shared" si="6"/>
         <v>0.23123123123123124</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="1">
@@ -1509,19 +1606,18 @@
         <f t="shared" si="7"/>
         <v>-1.7205781142463867E-2</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H33" s="3">
+        <f>I18/H18*1000</f>
+        <v>4.0607723231561386E-2</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1">
         <f t="shared" si="7"/>
         <v>0.10163934426229508</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="1">
@@ -1548,17 +1644,303 @@
         <f t="shared" si="8"/>
         <v>1.8278509544269916E-2</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H34" s="3">
+        <f>I20/H20*1000</f>
+        <v>3.7920913018905759E-2</v>
+      </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1">
         <f t="shared" si="8"/>
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>21.99</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E36">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F36">
+        <v>1.2</v>
+      </c>
+      <c r="G36">
+        <v>10504</v>
+      </c>
+      <c r="H36">
+        <v>33631</v>
+      </c>
+      <c r="I36">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E37">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F37">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G37">
+        <v>10560</v>
+      </c>
+      <c r="H37">
+        <v>33631</v>
+      </c>
+      <c r="I37">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40">
+        <v>1010</v>
+      </c>
+      <c r="G40">
+        <f>E40-A40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>F40-A40</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>500</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>510.24</v>
+      </c>
+      <c r="F41">
+        <v>516.85</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G45" si="9">E41-A41</f>
+        <v>10.240000000000009</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H45" si="10">F41-A41</f>
+        <v>16.850000000000023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42">
+        <v>1010</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>500</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>510.16</v>
+      </c>
+      <c r="F43">
+        <v>516.94000000000005</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>10.160000000000025</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="10"/>
+        <v>16.940000000000055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>250</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44">
+        <v>261.47000000000003</v>
+      </c>
+      <c r="F44">
+        <v>266.82</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>11.470000000000027</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>16.819999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>250</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>260.94</v>
+      </c>
+      <c r="F45">
+        <v>266.66000000000003</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>10.939999999999998</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="10"/>
+        <v>16.660000000000025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C46" s="4">
+        <v>500</v>
+      </c>
+      <c r="D46" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0.08</v>
+      </c>
+      <c r="D47">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>H41-H43</f>
+        <v>-9.0000000000031832E-2</v>
+      </c>
+      <c r="D48">
+        <f>H44-H45</f>
+        <v>0.15999999999996817</v>
+      </c>
+    </row>
+    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
